--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 18.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 18.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Student </t>
+          <t xml:space="preserve">S </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -565,7 +565,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -680,7 +680,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,7 +841,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -910,7 +910,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Student </t>
+          <t xml:space="preserve">S </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -933,7 +933,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1002,7 +1002,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1025,7 +1025,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1048,7 +1048,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1071,7 +1071,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1255,7 +1255,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1278,7 +1278,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1324,7 +1324,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1370,7 +1370,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1439,7 +1439,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1462,7 +1462,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1485,7 +1485,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1508,7 +1508,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1531,7 +1531,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1554,7 +1554,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1600,7 +1600,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1623,7 +1623,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1646,7 +1646,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1715,7 +1715,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Student 1</t>
+          <t>S 1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1738,7 +1738,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Student 2</t>
+          <t>S 2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1761,7 +1761,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1784,7 +1784,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1811,7 +1811,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1834,7 +1834,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1950,7 +1950,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1996,7 +1996,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
